--- a/biology/Zoologie/Bravasaurus/Bravasaurus.xlsx
+++ b/biology/Zoologie/Bravasaurus/Bravasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bravasaurus arreirosorum
-Bravasaurus (qui signifie « lézard de Laguna Brava ») est un genre de dinosaures sauropodes titanosauriens de la formation Ciénaga del Río Huaco du Crétacé supérieur de La Rioja, en Argentine. Il n'est représenté que par une espèce, Bravasaurus arreirosorum[1].
+Bravasaurus (qui signifie « lézard de Laguna Brava ») est un genre de dinosaures sauropodes titanosauriens de la formation Ciénaga del Río Huaco du Crétacé supérieur de La Rioja, en Argentine. Il n'est représenté que par une espèce, Bravasaurus arreirosorum.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique Bravasaurus est dérivé du parc national de Laguna Brava en Argentine. Le nom spécifique fait référence aux personnes, les arreiros ou chauffeurs en espagnol, qui transportaient du bétail à travers les Andes au XIXe siècle.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bravasaurus mesurait environ 7 m de long[1]. Il est connu par l'holotype CRILAR-Pv 612, qui se compose de l'os carré droit et du quadratojugal, de quatre vertèbres cervicales, cinq dorsales et trois caudales, de quelques côtes dorsales, de trois arcs hémaux, de l'humérus gauche, d'un cubitus fragmentaire, du métacarpien IV, un ilium gauche partiel, le pubis droit, un ischion partiel, le fémur gauche et les deux fibulas, et le paratype CRILAR-Pv 613, qui consiste en une dent isolée, l'ilium droit, le fémur droit et des côtes dorsales[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bravasaurus mesurait environ 7 m de long. Il est connu par l'holotype CRILAR-Pv 612, qui se compose de l'os carré droit et du quadratojugal, de quatre vertèbres cervicales, cinq dorsales et trois caudales, de quelques côtes dorsales, de trois arcs hémaux, de l'humérus gauche, d'un cubitus fragmentaire, du métacarpien IV, un ilium gauche partiel, le pubis droit, un ischion partiel, le fémur gauche et les deux fibulas, et le paratype CRILAR-Pv 613, qui consiste en une dent isolée, l'ilium droit, le fémur droit et des côtes dorsales.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'analyse phylogénétique des descripteurs place Bravasaurus comme membre dérivé des Lithostrotia, dans le clade Aeolosaurini, qu'ils récupèrent comme sous-clade de Rinconsauria, différent des autres cladogrammes. Leur cladogramme est présenté ci-dessous :
 </t>
@@ -605,7 +623,9 @@
           <t>Paléoenvironnement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La localité holotype, le site de la Quebrada de Santo Domingo, conserve l'une des plus grandes concentrations d'œufs de titanosaure au monde. Les auteurs de la description suggèrent un lien avec Bravasaurus ou son contemporain Punatitan, qui a été décrit dans le même article.
 </t>
